--- a/Mob API.xlsx
+++ b/Mob API.xlsx
@@ -1,35 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA_TEST\Теория QA\API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326790E9-7DF2-4323-BC49-946FA6C02DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7518A5DE-295B-45DD-A017-DE6C8BBB11B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5B84BB14-FE55-4349-8B16-9C9B2B0F87E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Версии" sheetId="17" r:id="rId1"/>
-    <sheet name="Виды тест" sheetId="1" r:id="rId2"/>
-    <sheet name="Т.Докум " sheetId="10" r:id="rId3"/>
-    <sheet name="UI.т" sheetId="11" r:id="rId4"/>
-    <sheet name="Вопросы " sheetId="2" r:id="rId5"/>
-    <sheet name="Функц.т" sheetId="3" r:id="rId6"/>
+    <sheet name="Т.Докум " sheetId="10" r:id="rId2"/>
+    <sheet name="UI.т" sheetId="11" r:id="rId3"/>
+    <sheet name="Вопросы " sheetId="2" r:id="rId4"/>
+    <sheet name="Функц.т" sheetId="3" r:id="rId5"/>
+    <sheet name="Сертиф" sheetId="16" r:id="rId6"/>
     <sheet name="т.произв" sheetId="4" r:id="rId7"/>
     <sheet name="т.безоп " sheetId="5" r:id="rId8"/>
     <sheet name="Локализ.т" sheetId="13" r:id="rId9"/>
     <sheet name="Регресс.т" sheetId="14" r:id="rId10"/>
     <sheet name="Betta.т" sheetId="15" r:id="rId11"/>
-    <sheet name="Сертиф" sheetId="16" r:id="rId12"/>
-    <sheet name="Юзабил.т" sheetId="6" r:id="rId13"/>
-    <sheet name="Конф.т" sheetId="7" r:id="rId14"/>
-    <sheet name="т.восст" sheetId="8" r:id="rId15"/>
-    <sheet name="Совмест" sheetId="12" r:id="rId16"/>
-    <sheet name="Интегр.т" sheetId="9" r:id="rId17"/>
+    <sheet name="Юзабил.т" sheetId="6" r:id="rId12"/>
+    <sheet name="Конф.т" sheetId="7" r:id="rId13"/>
+    <sheet name="т.восст" sheetId="8" r:id="rId14"/>
+    <sheet name="Совмест" sheetId="12" r:id="rId15"/>
+    <sheet name="Интегр.т" sheetId="9" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,116 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="533">
-  <si>
-    <t>регистрация: с логином и паролем, без пароля, через социальные сети и т.д.;</t>
-  </si>
-  <si>
-    <t>авторизация: с логином и паролем, через социальные сети и т.д.;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="492">
   <si>
     <t>восстановление пароля;</t>
   </si>
   <si>
-    <t>выход из системы: независимый, при завершении сессии и т.д.</t>
-  </si>
-  <si>
-    <t>ПОЗИТИВНЫЕ СЦЕНАРИИ:</t>
-  </si>
-  <si>
-    <t>регистрация доступна во всех описанных способах тестирования;</t>
-  </si>
-  <si>
-    <t>регистрация возможна только при заполнении обязательных полей;</t>
-  </si>
-  <si>
-    <t>регистрация возможна при заполнении всех предоставленных полей;</t>
-  </si>
-  <si>
-    <t>пользователь может авторизоваться после регистрации. При этом введенные данные ( e-mail, пароль, персональная информация и т.д.) корректно сохранены в профиле;</t>
-  </si>
-  <si>
-    <t>после регистрации на одном устройстве, можно зарегистрироваться на другом – данные успешно сохраняются и доступны на сервере;</t>
-  </si>
-  <si>
-    <t>выход из системы выполняется корректно;</t>
-  </si>
-  <si>
-    <t>восстановление пароля выполняется корректно.</t>
-  </si>
-  <si>
-    <t>НЕГАТИВНЫЕ СЦЕНАРИИ (САМЫЕ ОЧЕВИДНЫЕ):</t>
-  </si>
-  <si>
-    <t>повторная регистрация с той же электронной почтой или логином невозможна;</t>
-  </si>
-  <si>
-    <t>регистрация без заполнения необходимых полей невозможна;</t>
-  </si>
-  <si>
-    <t>регистрация невозможна в случае, если все поля пусты;</t>
-  </si>
-  <si>
-    <t>регистрация невозможна, если информация в формате, который не соответствует требованиям;</t>
-  </si>
-  <si>
-    <t>авторизация невозможна, если поля пустые;</t>
-  </si>
-  <si>
-    <t>авторизация с неправильным/удаленным/заблокированным логином невозможна;</t>
-  </si>
-  <si>
-    <t>авторизация невозможна при неправильном пароле.</t>
-  </si>
-  <si>
-    <t>СОЗДАНИЕ КОНТАКТОВ</t>
-  </si>
-  <si>
-    <t>Разумно предположить, что, если пользователь создает контакт, должны быть возможность его просматривать, редактировать и удалять. Это основной набор функций.</t>
-  </si>
-  <si>
-    <t>создание, обновление, просмотр и удаление контактов доступны;</t>
-  </si>
-  <si>
-    <t>создание контакта с минимальным и максимальным набором информации возможно;</t>
-  </si>
-  <si>
-    <t>при создании все виды информации, описанные в тестовом задании, тщательно обрабатываются;</t>
-  </si>
-  <si>
-    <t>контакт доступен для просмотра после создания;</t>
-  </si>
-  <si>
-    <t>обновление учитывает обязательные поля/информацию/элементы – без них можно сохранить контакт;</t>
-  </si>
-  <si>
-    <t>контакт недоступен после удаления.</t>
-  </si>
-  <si>
-    <t>НЕГАТИВНЫЕ СЦЕНАРИИ:</t>
-  </si>
-  <si>
-    <t>создание двух идентичных контактов невозможно (это может также считаться позитивным сценарием);</t>
-  </si>
-  <si>
-    <t>создание контактов при отсутствии обязательных элементов/информации невозможно.</t>
-  </si>
-  <si>
-    <t>ТЕСТИРОВАНИЕ ПОЛЬЗОВАТЕЛЬСКОГО ИНТЕРФЕЙСА ТАКЖЕ МОЖЕТ ОТНОСИТЬСЯ К ФУНКЦИОНАЛЬНОМУ ТЕСТИРОВАНИЮ:</t>
-  </si>
-  <si>
-    <t>тестирование экрана на соответствие макету;</t>
-  </si>
-  <si>
-    <t>проверка нативных операций: движение пальцем по экрану, мультитач и так далее – приложение должно определенным образом на них реагировать;</t>
-  </si>
-  <si>
-    <t>верификация состояния элементов: изменение цвета кнопок при нажатии; разворачивание и сворачивание списков и т.д.;</t>
-  </si>
-  <si>
-    <t>может быть задействовано тестирование локализации, если приложение содержит более одного языка. При этом важно обращать внимание на макет – многие названия на иностранных языках отображаются дольше, чем на английском или русском.</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
@@ -161,21 +55,6 @@
   </si>
   <si>
     <t>3.</t>
-  </si>
-  <si>
-    <t>ФУНКЦИИ ВХОД/ВЫХОД</t>
-  </si>
-  <si>
-    <t>СТАНДАРТНЫЕ ФУНКЦИИ ВХОД/ВЫХОД:</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>Общие вопросы по приложению</t>
@@ -2026,9 +1905,6 @@
   </si>
   <si>
     <t>Интеграционное тестирование</t>
-  </si>
-  <si>
-    <t>ВИДЫ тестирования Mob.API</t>
   </si>
   <si>
     <t>Тестирование документации</t>
@@ -4493,7 +4369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4504,40 +4380,11 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF444444"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -4691,71 +4538,48 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4764,78 +4588,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4854,72 +4672,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>771524</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>36855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8591549</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="Тестирование мобильных приложений">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB18CC7E-9581-4EF0-BB8A-D3777CAC4425}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1381124" y="236880"/>
-          <a:ext cx="7820025" cy="2344395"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5222,517 +4974,517 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="45" t="s">
-        <v>493</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="B2" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>487</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="42" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
+      <c r="B3" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="31" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>488</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
+      <c r="B4" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="31" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
+      <c r="B5" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="40">
+      <c r="B6" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="29">
         <v>2009</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
+      <c r="E6" s="31" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
+      <c r="B7" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>454</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="40">
+      <c r="B8" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29">
         <v>2010</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
+      <c r="E8" s="31" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>455</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="40">
+      <c r="B9" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29">
         <v>2011</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
+      <c r="E9" s="31" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40">
+      <c r="B10" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29">
         <v>2011</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75">
+      <c r="E10" s="31" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="40">
+      <c r="B11" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29">
         <v>2012</v>
       </c>
-      <c r="E11" s="42" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
+      <c r="E11" s="31" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>458</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="40">
+      <c r="B12" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="29">
         <v>2013</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75">
+      <c r="E12" s="31" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="40">
+      <c r="B13" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29">
         <v>2014</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75">
+      <c r="E13" s="31" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75">
+      <c r="B14" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
+      <c r="B15" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>462</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75">
+      <c r="B16" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>463</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75">
+      <c r="B17" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75">
+      <c r="B18" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
+      <c r="B19" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="42" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="45" t="s">
-        <v>494</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.5">
-      <c r="B26" s="46" t="s">
-        <v>495</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>496</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>497</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="57">
+      <c r="B20" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="34">
         <v>37624</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>532</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="57">
+      <c r="C27" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="34">
         <v>36926</v>
       </c>
-      <c r="C28" s="46" t="s">
-        <v>501</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>502</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="57">
+      <c r="C28" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
-      <c r="B29" s="47">
+      <c r="B29" s="34">
         <v>36896</v>
       </c>
-      <c r="C29" s="46" t="s">
-        <v>504</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="71.25">
+      <c r="C29" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="47">
+      <c r="B30" s="34">
         <v>38723</v>
       </c>
-      <c r="C30" s="46" t="s">
-        <v>507</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>508</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="41.25" customHeight="1">
+      <c r="C30" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="38">
         <v>37263</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>510</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>512</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="C31" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="46" t="s">
-        <v>511</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="42"/>
-    </row>
-    <row r="33" spans="1:5" ht="57">
+      <c r="B32" s="38"/>
+      <c r="C32" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="34">
         <v>38420</v>
       </c>
-      <c r="C33" s="46" t="s">
-        <v>514</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>515</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="57">
+      <c r="C33" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="34">
         <v>38785</v>
       </c>
-      <c r="C34" s="46" t="s">
-        <v>517</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="57">
+      <c r="C34" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="34">
         <v>37690</v>
       </c>
-      <c r="C35" s="46" t="s">
-        <v>520</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="57">
+      <c r="C35" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="34">
         <v>38056</v>
       </c>
-      <c r="C36" s="46" t="s">
-        <v>523</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="57">
+      <c r="C36" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
-      <c r="B37" s="47">
+      <c r="B37" s="34">
         <v>39550</v>
       </c>
-      <c r="C37" s="46" t="s">
-        <v>525</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="71.25">
+      <c r="C37" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
-      <c r="B38" s="48" t="s">
-        <v>528</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>529</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>530</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>531</v>
+      <c r="B38" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5777,48 +5529,48 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="154.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="17.25">
-      <c r="B2" s="30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25">
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:2" ht="34.5">
-      <c r="B4" s="31" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
-      <c r="B6" s="30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51.75">
-      <c r="A7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="51.75">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25">
-      <c r="B10" s="31" t="s">
-        <v>414</v>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5834,72 +5586,72 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="150.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="20.25">
-      <c r="B2" s="34" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="34.5">
-      <c r="B3" s="31" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="34.5">
-      <c r="B5" s="30" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="34.5">
-      <c r="B7" s="31" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="17.25">
-      <c r="B9" s="31" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="2:2" ht="17.25">
-      <c r="B11" s="32" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="17.25">
-      <c r="B12" s="32" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="17.25">
-      <c r="B13" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="17.25">
-      <c r="B14" s="32" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="17.25">
-      <c r="B15" s="32" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="34.5">
-      <c r="B17" s="31" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="17.25">
-      <c r="B19" s="31" t="s">
-        <v>426</v>
+    <row r="2" spans="2:2" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -5908,6 +5660,2167 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6B5E6-7839-497A-B6BD-F55A7EC994E1}">
+  <dimension ref="A2:B38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="146.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AD940F-4F34-4C93-BA22-5C365AD6EFCC}">
+  <dimension ref="A2:B24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="141.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1361C75F-8E40-4F09-BC05-284EA1A2796C}">
+  <dimension ref="A2:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="156" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5024DD35-2D97-4DAC-A65A-61E702DA7304}">
+  <dimension ref="A2:B30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="146" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8785D4F-87F1-45BB-85D2-594E98AFA78E}">
+  <dimension ref="A2:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="154.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420B1002-3118-4B3B-81AB-B6D570AE5560}">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="140.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3638726-D5B0-4C0D-81D4-7388DAA5E395}">
+  <dimension ref="A2:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="152.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1688E23C-C0EA-461A-B2DB-258F55C407D9}">
+  <dimension ref="B2:B167"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="151.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="2:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B134" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B135" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B136" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B140" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B142" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B143" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B144" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B145" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B146" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B150" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B151" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B152" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B153" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B154" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B159" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B160" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B161" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B162" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B164" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B166" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B167" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3234F238-5BE7-40FE-81BF-38C002E7E96B}">
+  <dimension ref="A1:E71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="127.5703125" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="40"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="40"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="40"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="40"/>
+    </row>
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="40"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="40"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>9</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>10</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>12</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>13</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>14</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>15</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>16</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>17</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>18</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>19</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:C7"/>
+    <mergeCell ref="C9:C18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E0D88A-C2AC-46A6-842E-2CC4575AC0A7}">
   <dimension ref="B2:B29"/>
   <sheetViews>
@@ -5915,121 +7828,121 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="155.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="17.25">
-      <c r="B2" s="30" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="17.25">
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="2:2" ht="51.75">
-      <c r="B4" s="31" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="17.25">
-      <c r="B6" s="31" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="17.25">
-      <c r="B8" s="30" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="35" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="35" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="34.5">
-      <c r="B12" s="32" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="17.25">
-      <c r="B13" s="32" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="17.25">
-      <c r="B15" s="30" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="35" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="17.25">
-      <c r="B18" s="32" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="17.25">
-      <c r="B19" s="32" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="17.25">
-      <c r="B20" s="32" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="17.25">
-      <c r="B21" s="32" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="17.25">
-      <c r="B22" s="32" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="17.25">
-      <c r="B24" s="30" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="35" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="17.25">
-      <c r="B27" s="32" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="17.25">
-      <c r="B28" s="32" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="17.25">
-      <c r="B29" s="32" t="s">
-        <v>446</v>
+    <row r="2" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="2:2" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6039,2533 +7952,6 @@
     <hyperlink ref="B17" r:id="rId3" display="https://developer.apple.com/library/ios/documentation/userexperience/conceptual/mobilehig/MobileHIG.pdf" xr:uid="{9CF5AF25-8FF0-438D-86D0-81200A686665}"/>
     <hyperlink ref="B26" r:id="rId4" display="https://msdn.microsoft.com/en-us/library/windowsphone/develop/hh184843(v=vs.105).aspx" xr:uid="{4326B11E-B889-44FA-B73D-052B8DE4A04A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6B5E6-7839-497A-B6BD-F55A7EC994E1}">
-  <dimension ref="A2:B38"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="146.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="23.25">
-      <c r="B2" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5">
-      <c r="B4" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.5">
-      <c r="A18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.5">
-      <c r="B24" s="19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.5">
-      <c r="B26" s="19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:2" ht="28.5">
-      <c r="A30" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="28.5">
-      <c r="A32" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="28.5">
-      <c r="A33" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="1:2" ht="42.75">
-      <c r="A37" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="28.5">
-      <c r="A38" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AD940F-4F34-4C93-BA22-5C365AD6EFCC}">
-  <dimension ref="A2:B24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="141.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="23.25">
-      <c r="B2" s="18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5">
-      <c r="B4" s="19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="57">
-      <c r="B11" s="19" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="71.25">
-      <c r="B24" s="19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1361C75F-8E40-4F09-BC05-284EA1A2796C}">
-  <dimension ref="A2:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="156" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="23.25">
-      <c r="B2" s="18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.5">
-      <c r="B4" s="27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.5">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.5">
-      <c r="A14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5024DD35-2D97-4DAC-A65A-61E702DA7304}">
-  <dimension ref="A2:B30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="146" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="17.25">
-      <c r="B2" s="30" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25">
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:2" ht="51.75">
-      <c r="B4" s="31" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25">
-      <c r="A5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25">
-      <c r="A7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="34.5">
-      <c r="B11" s="30" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34.5">
-      <c r="B13" s="30" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="34.5">
-      <c r="B15" s="30" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="17.25">
-      <c r="B17" s="30" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="2:2" ht="17.25">
-      <c r="B19" s="32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="17.25">
-      <c r="B20" s="32" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="34.5">
-      <c r="B22" s="30" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="17.25">
-      <c r="B24" s="31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="2:2" ht="17.25">
-      <c r="B26" s="32" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="17.25">
-      <c r="B27" s="32" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="17.25">
-      <c r="B28" s="32" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="34.5">
-      <c r="B30" s="31" t="s">
-        <v>396</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8785D4F-87F1-45BB-85D2-594E98AFA78E}">
-  <dimension ref="A2:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="154.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="23.25">
-      <c r="B2" s="18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5">
-      <c r="B3" s="19" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="23" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2110AE78-698A-4F4C-AC3D-6A08A1895A6F}">
-  <dimension ref="A1:M41"/>
-  <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="F20" sqref="C2:F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="133.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1">
-      <c r="B1" s="11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="190.5" customHeight="1"/>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="10" customFormat="1">
-      <c r="A17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="6" customFormat="1">
-      <c r="A25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="43"/>
-    </row>
-    <row r="26" spans="1:13" ht="30">
-      <c r="A26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="10" customFormat="1">
-      <c r="A27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="10" customFormat="1">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="6" customFormat="1" ht="31.5">
-      <c r="A37" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="43"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="45">
-      <c r="A41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420B1002-3118-4B3B-81AB-B6D570AE5560}">
-  <dimension ref="B2:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="140.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="17.25">
-      <c r="B2" s="30" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="17.25">
-      <c r="B4" s="31" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="51.75">
-      <c r="B6" s="31" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="34.5">
-      <c r="B8" s="31" t="s">
-        <v>365</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3638726-D5B0-4C0D-81D4-7388DAA5E395}">
-  <dimension ref="A2:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="152.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" ht="17.25">
-      <c r="B2" s="30" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25">
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:2" ht="34.5">
-      <c r="B4" s="31" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
-      <c r="B6" s="30" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25">
-      <c r="A7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="34.5">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="34.5">
-      <c r="A10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25">
-      <c r="A11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25">
-      <c r="A13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25">
-      <c r="A14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="34.5">
-      <c r="B16" s="31" t="s">
-        <v>377</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1688E23C-C0EA-461A-B2DB-258F55C407D9}">
-  <dimension ref="B2:B167"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="151.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="23.25">
-      <c r="B2" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="17.25">
-      <c r="B4" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="2:2" ht="51.75">
-      <c r="B6" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="34.5">
-      <c r="B7" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="34.5">
-      <c r="B8" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="34.5">
-      <c r="B9" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="34.5">
-      <c r="B10" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="34.5">
-      <c r="B11" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="34.5">
-      <c r="B12" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="17.25">
-      <c r="B13" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="23.25">
-      <c r="B15" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="2:2" ht="51.75">
-      <c r="B17" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="34.5">
-      <c r="B18" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="17.25">
-      <c r="B19" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="34.5">
-      <c r="B20" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="34.5">
-      <c r="B21" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="34.5">
-      <c r="B22" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="34.5">
-      <c r="B23" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="51.75">
-      <c r="B24" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="17.25">
-      <c r="B25" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="17.25">
-      <c r="B26" s="16"/>
-    </row>
-    <row r="27" spans="2:2" ht="17.25">
-      <c r="B27" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="17.25">
-      <c r="B28" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="34.5">
-      <c r="B29" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="17.25">
-      <c r="B31" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="23.25">
-      <c r="B33" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="2:2" ht="34.5">
-      <c r="B35" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="34.5">
-      <c r="B36" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="17.25">
-      <c r="B37" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="23.25">
-      <c r="B39" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="17.25">
-      <c r="B41" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="2:2" ht="17.25">
-      <c r="B43" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="34.5">
-      <c r="B44" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="17.25">
-      <c r="B45" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="23.25">
-      <c r="B47" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="2:2" ht="17.25">
-      <c r="B49" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="34.5">
-      <c r="B50" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="17.25">
-      <c r="B51" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="23.25">
-      <c r="B53" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="17.25">
-      <c r="B55" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="14"/>
-    </row>
-    <row r="57" spans="2:2" ht="34.5">
-      <c r="B57" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="34.5">
-      <c r="B58" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" ht="17.25">
-      <c r="B59" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" ht="17.25">
-      <c r="B60" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" ht="51.75">
-      <c r="B61" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="17.25">
-      <c r="B62" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" ht="17.25">
-      <c r="B63" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" ht="34.5">
-      <c r="B64" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" ht="34.5">
-      <c r="B65" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" ht="23.25">
-      <c r="B67" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="14"/>
-    </row>
-    <row r="69" spans="2:2" ht="34.5">
-      <c r="B69" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="34.5">
-      <c r="B70" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" ht="17.25">
-      <c r="B71" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" ht="17.25">
-      <c r="B72" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" ht="17.25">
-      <c r="B73" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" ht="23.25">
-      <c r="B75" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="14"/>
-    </row>
-    <row r="77" spans="2:2" ht="17.25">
-      <c r="B77" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" ht="17.25">
-      <c r="B78" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" ht="17.25">
-      <c r="B79" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" ht="34.5">
-      <c r="B80" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="17.25">
-      <c r="B81" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="17.25">
-      <c r="B82" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="17.25">
-      <c r="B83" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="23.25">
-      <c r="B85" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="14"/>
-    </row>
-    <row r="87" spans="2:2" ht="17.25">
-      <c r="B87" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" ht="17.25">
-      <c r="B88" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" ht="17.25">
-      <c r="B89" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" ht="34.5">
-      <c r="B90" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" ht="17.25">
-      <c r="B91" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" ht="17.25">
-      <c r="B92" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" ht="17.25">
-      <c r="B93" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" ht="17.25">
-      <c r="B94" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" ht="23.25">
-      <c r="B96" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="14"/>
-    </row>
-    <row r="98" spans="2:2" ht="17.25">
-      <c r="B98" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" ht="17.25">
-      <c r="B99" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" ht="17.25">
-      <c r="B100" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" ht="17.25">
-      <c r="B101" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" ht="23.25">
-      <c r="B103" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="14"/>
-    </row>
-    <row r="105" spans="2:2" ht="17.25">
-      <c r="B105" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" ht="17.25">
-      <c r="B106" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" ht="17.25">
-      <c r="B107" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" ht="34.5">
-      <c r="B108" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" ht="23.25">
-      <c r="B110" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="14"/>
-    </row>
-    <row r="112" spans="2:2" ht="17.25">
-      <c r="B112" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" ht="34.5">
-      <c r="B113" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" ht="17.25">
-      <c r="B114" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" ht="17.25">
-      <c r="B115" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" ht="17.25">
-      <c r="B116" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" ht="23.25">
-      <c r="B118" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="14"/>
-    </row>
-    <row r="120" spans="2:2" ht="34.5">
-      <c r="B120" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" ht="17.25">
-      <c r="B121" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" ht="34.5">
-      <c r="B122" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" ht="17.25">
-      <c r="B123" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" ht="34.5">
-      <c r="B124" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" ht="34.5">
-      <c r="B125" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" ht="23.25">
-      <c r="B127" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="14"/>
-    </row>
-    <row r="129" spans="2:2" ht="17.25">
-      <c r="B129" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" ht="17.25">
-      <c r="B130" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" ht="17.25">
-      <c r="B131" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" ht="34.5">
-      <c r="B132" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" ht="17.25">
-      <c r="B133" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" ht="17.25">
-      <c r="B134" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" ht="17.25">
-      <c r="B135" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" ht="17.25">
-      <c r="B136" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" ht="23.25">
-      <c r="B138" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="14"/>
-    </row>
-    <row r="140" spans="2:2" ht="17.25">
-      <c r="B140" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" ht="17.25">
-      <c r="B141" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" ht="17.25">
-      <c r="B142" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" ht="17.25">
-      <c r="B143" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" ht="34.5">
-      <c r="B144" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" ht="34.5">
-      <c r="B145" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" ht="17.25">
-      <c r="B146" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" ht="23.25">
-      <c r="B148" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="14"/>
-    </row>
-    <row r="150" spans="2:2" ht="17.25">
-      <c r="B150" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" ht="34.5">
-      <c r="B151" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" ht="17.25">
-      <c r="B152" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" ht="17.25">
-      <c r="B153" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" ht="17.25">
-      <c r="B154" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" ht="23.25">
-      <c r="B156" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="14"/>
-    </row>
-    <row r="158" spans="2:2" ht="34.5">
-      <c r="B158" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" ht="17.25">
-      <c r="B159" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" ht="17.25">
-      <c r="B160" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="17.25">
-      <c r="B161" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" ht="17.25">
-      <c r="B162" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" ht="23.25">
-      <c r="B164" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="14"/>
-    </row>
-    <row r="166" spans="2:2" ht="34.5">
-      <c r="B166" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" ht="51.75">
-      <c r="B167" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3234F238-5BE7-40FE-81BF-38C002E7E96B}">
-  <dimension ref="A1:E71"/>
-  <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="127.5703125" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="C1" s="36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="B2" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="36"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" ht="28.5">
-      <c r="B4" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="B9" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="14"/>
-      <c r="C10" s="36"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="36"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="36"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="36"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.5">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" ht="42.75">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="36"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="36"/>
-    </row>
-    <row r="17" spans="1:3" ht="28.5">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="36"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="36"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="24">
-        <v>9</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="22"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="24">
-        <v>10</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="22"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="24">
-        <v>11</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="22"/>
-    </row>
-    <row r="22" spans="1:3" ht="28.5">
-      <c r="A22" s="24">
-        <v>12</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="22"/>
-    </row>
-    <row r="23" spans="1:3" ht="28.5">
-      <c r="A23" s="24">
-        <v>13</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="22"/>
-    </row>
-    <row r="24" spans="1:3" ht="28.5">
-      <c r="A24" s="24">
-        <v>14</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="22"/>
-    </row>
-    <row r="25" spans="1:3" ht="28.5">
-      <c r="A25" s="24">
-        <v>15</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="24">
-        <v>16</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="24">
-        <v>17</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="22"/>
-    </row>
-    <row r="28" spans="1:3" ht="42.75">
-      <c r="A28" s="24">
-        <v>18</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="24">
-        <v>19</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.5">
-      <c r="A42" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="28.5">
-      <c r="A43" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="25"/>
-      <c r="B54" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="B56" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="B64" s="23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="28.5">
-      <c r="A69" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="28.5">
-      <c r="A71" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:C7"/>
-    <mergeCell ref="C9:C18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8578,183 +7964,183 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="133.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
-      <c r="B1" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5">
-      <c r="B3" s="19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="26" customFormat="1">
-      <c r="B5" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="42.75">
-      <c r="B12" s="19" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="26" customFormat="1">
-      <c r="B14" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.5">
-      <c r="A16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="28.5">
-      <c r="A21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.5">
-      <c r="A24" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="34.5">
-      <c r="B29" s="20" t="s">
-        <v>397</v>
+      <c r="B10" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -8766,236 +8152,236 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F371F5BA-4308-4D59-8F04-DE216452A189}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="136.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="136.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
-      <c r="B1" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="42.75">
-      <c r="B3" s="28" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" s="26" customFormat="1">
-      <c r="B7" s="23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:2" ht="28.5">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.5">
-      <c r="A10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.5">
-      <c r="A11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.5">
-      <c r="A16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.5">
-      <c r="A23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="34.5">
-      <c r="B34" s="20" t="s">
-        <v>398</v>
+    <row r="7" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -9011,77 +8397,77 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="146.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="17.25">
-      <c r="B2" s="30" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25">
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:2" ht="34.5">
-      <c r="B4" s="31" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
-      <c r="B6" s="30" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25">
-      <c r="A7" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25">
-      <c r="A10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25">
-      <c r="A11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25">
-      <c r="B13" s="31" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25">
-      <c r="B15" s="33" t="s">
-        <v>408</v>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:2" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
